--- a/excel_reporting_templates/DeclarableSubstancesForBatterySupplier-1.0.0-schema-reporting_template.xlsx
+++ b/excel_reporting_templates/DeclarableSubstancesForBatterySupplier-1.0.0-schema-reporting_template.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="semantic_aspect_model_schema" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="possible_values" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="description" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="metadata" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -55,11 +57,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,65 +439,4050 @@
     <col width="50" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="40.8" customWidth="1" min="4" max="4"/>
-    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="48" customWidth="1" min="5" max="5"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
+    <col width="36" customWidth="1" min="7" max="7"/>
+    <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Unique identifier for the declarable substances data.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Describes a Property which contains plain text.</t>
+          <t>criticalRawMaterials[0]_criticalRawMaterialName</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>criticalRawMaterials[0]_percentageOfMaterialWeight</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Describes a Property which contains plain text.</t>
+          <t>hazardousMaterials[0]_hazardClassification</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Characteristic of a numeric value.</t>
+          <t>hazardousMaterials[0]_locationOfHazardousSubstances</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Describes a Property which contains plain text.</t>
+          <t>hazardousMaterials[0]_enviromentalImpact</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>hazardousMaterials[0]_hazardousMaterialCas</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>hazardousMaterials[0]_clpIndex</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>hazardousMaterials[0]_rangeScipConcentration</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>identifier</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>substancesList_substanceName</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>substancesList_casNumber</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>substancesList_concentration</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>substancesList_regulatoryCompliance</t>
-        </is>
-      </c>
-    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
+    <row r="34"/>
+    <row r="35"/>
+    <row r="36"/>
+    <row r="37"/>
+    <row r="38"/>
+    <row r="39"/>
+    <row r="40"/>
+    <row r="41"/>
+    <row r="42"/>
+    <row r="43"/>
+    <row r="44"/>
+    <row r="45"/>
+    <row r="46"/>
+    <row r="47"/>
+    <row r="48"/>
+    <row r="49"/>
+    <row r="50"/>
+    <row r="51"/>
+    <row r="52"/>
+    <row r="53"/>
+    <row r="54"/>
+    <row r="55"/>
+    <row r="56"/>
+    <row r="57"/>
+    <row r="58"/>
+    <row r="59"/>
+    <row r="60"/>
+    <row r="61"/>
+    <row r="62"/>
+    <row r="63"/>
+    <row r="64"/>
+    <row r="65"/>
+    <row r="66"/>
+    <row r="67"/>
+    <row r="68"/>
+    <row r="69"/>
+    <row r="70"/>
+    <row r="71"/>
+    <row r="72"/>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75"/>
+    <row r="76"/>
+    <row r="77"/>
+    <row r="78"/>
+    <row r="79"/>
+    <row r="80"/>
+    <row r="81"/>
+    <row r="82"/>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85"/>
+    <row r="86"/>
+    <row r="87"/>
+    <row r="88"/>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91"/>
+    <row r="92"/>
+    <row r="93"/>
+    <row r="94"/>
+    <row r="95"/>
+    <row r="96"/>
+    <row r="97"/>
+    <row r="98"/>
+    <row r="99"/>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102"/>
+    <row r="103"/>
+    <row r="104"/>
+    <row r="105"/>
+    <row r="106"/>
+    <row r="107"/>
+    <row r="108"/>
+    <row r="109"/>
+    <row r="110"/>
+    <row r="111"/>
+    <row r="112"/>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119"/>
+    <row r="120"/>
+    <row r="121"/>
+    <row r="122"/>
+    <row r="123"/>
+    <row r="124"/>
+    <row r="125"/>
+    <row r="126"/>
+    <row r="127"/>
+    <row r="128"/>
+    <row r="129"/>
+    <row r="130"/>
+    <row r="131"/>
+    <row r="132"/>
+    <row r="133"/>
+    <row r="134"/>
+    <row r="135"/>
+    <row r="136"/>
+    <row r="137"/>
+    <row r="138"/>
+    <row r="139"/>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147"/>
+    <row r="148"/>
+    <row r="149"/>
+    <row r="150"/>
+    <row r="151"/>
+    <row r="152"/>
+    <row r="153"/>
+    <row r="154"/>
+    <row r="155"/>
+    <row r="156"/>
+    <row r="157"/>
+    <row r="158"/>
+    <row r="159"/>
+    <row r="160"/>
+    <row r="161"/>
+    <row r="162"/>
+    <row r="163"/>
+    <row r="164"/>
+    <row r="165"/>
+    <row r="166"/>
+    <row r="167"/>
+    <row r="168"/>
+    <row r="169"/>
+    <row r="170"/>
+    <row r="171"/>
+    <row r="172"/>
+    <row r="173"/>
+    <row r="174"/>
+    <row r="175"/>
+    <row r="176"/>
+    <row r="177"/>
+    <row r="178"/>
+    <row r="179"/>
+    <row r="180"/>
+    <row r="181"/>
+    <row r="182"/>
+    <row r="183"/>
+    <row r="184"/>
+    <row r="185"/>
+    <row r="186"/>
+    <row r="187"/>
+    <row r="188"/>
+    <row r="189"/>
+    <row r="190"/>
+    <row r="191"/>
+    <row r="192"/>
+    <row r="193"/>
+    <row r="194"/>
+    <row r="195"/>
+    <row r="196"/>
+    <row r="197"/>
+    <row r="198"/>
+    <row r="199"/>
+    <row r="200"/>
+    <row r="201"/>
+    <row r="202"/>
+    <row r="203"/>
+    <row r="204"/>
+    <row r="205"/>
+    <row r="206"/>
+    <row r="207"/>
+    <row r="208"/>
+    <row r="209"/>
+    <row r="210"/>
+    <row r="211"/>
+    <row r="212"/>
+    <row r="213"/>
+    <row r="214"/>
+    <row r="215"/>
+    <row r="216"/>
+    <row r="217"/>
+    <row r="218"/>
+    <row r="219"/>
+    <row r="220"/>
+    <row r="221"/>
+    <row r="222"/>
+    <row r="223"/>
+    <row r="224"/>
+    <row r="225"/>
+    <row r="226"/>
+    <row r="227"/>
+    <row r="228"/>
+    <row r="229"/>
+    <row r="230"/>
+    <row r="231"/>
+    <row r="232"/>
+    <row r="233"/>
+    <row r="234"/>
+    <row r="235"/>
+    <row r="236"/>
+    <row r="237"/>
+    <row r="238"/>
+    <row r="239"/>
+    <row r="240"/>
+    <row r="241"/>
+    <row r="242"/>
+    <row r="243"/>
+    <row r="244"/>
+    <row r="245"/>
+    <row r="246"/>
+    <row r="247"/>
+    <row r="248"/>
+    <row r="249"/>
+    <row r="250"/>
+    <row r="251"/>
+    <row r="252"/>
+    <row r="253"/>
+    <row r="254"/>
+    <row r="255"/>
+    <row r="256"/>
+    <row r="257"/>
+    <row r="258"/>
+    <row r="259"/>
+    <row r="260"/>
+    <row r="261"/>
+    <row r="262"/>
+    <row r="263"/>
+    <row r="264"/>
+    <row r="265"/>
+    <row r="266"/>
+    <row r="267"/>
+    <row r="268"/>
+    <row r="269"/>
+    <row r="270"/>
+    <row r="271"/>
+    <row r="272"/>
+    <row r="273"/>
+    <row r="274"/>
+    <row r="275"/>
+    <row r="276"/>
+    <row r="277"/>
+    <row r="278"/>
+    <row r="279"/>
+    <row r="280"/>
+    <row r="281"/>
+    <row r="282"/>
+    <row r="283"/>
+    <row r="284"/>
+    <row r="285"/>
+    <row r="286"/>
+    <row r="287"/>
+    <row r="288"/>
+    <row r="289"/>
+    <row r="290"/>
+    <row r="291"/>
+    <row r="292"/>
+    <row r="293"/>
+    <row r="294"/>
+    <row r="295"/>
+    <row r="296"/>
+    <row r="297"/>
+    <row r="298"/>
+    <row r="299"/>
+    <row r="300"/>
+    <row r="301"/>
+    <row r="302"/>
+    <row r="303"/>
+    <row r="304"/>
+    <row r="305"/>
+    <row r="306"/>
+    <row r="307"/>
+    <row r="308"/>
+    <row r="309"/>
+    <row r="310"/>
+    <row r="311"/>
+    <row r="312"/>
+    <row r="313"/>
+    <row r="314"/>
+    <row r="315"/>
+    <row r="316"/>
+    <row r="317"/>
+    <row r="318"/>
+    <row r="319"/>
+    <row r="320"/>
+    <row r="321"/>
+    <row r="322"/>
+    <row r="323"/>
+    <row r="324"/>
+    <row r="325"/>
+    <row r="326"/>
+    <row r="327"/>
+    <row r="328"/>
+    <row r="329"/>
+    <row r="330"/>
+    <row r="331"/>
+    <row r="332"/>
+    <row r="333"/>
+    <row r="334"/>
+    <row r="335"/>
+    <row r="336"/>
+    <row r="337"/>
+    <row r="338"/>
+    <row r="339"/>
+    <row r="340"/>
+    <row r="341"/>
+    <row r="342"/>
+    <row r="343"/>
+    <row r="344"/>
+    <row r="345"/>
+    <row r="346"/>
+    <row r="347"/>
+    <row r="348"/>
+    <row r="349"/>
+    <row r="350"/>
+    <row r="351"/>
+    <row r="352"/>
+    <row r="353"/>
+    <row r="354"/>
+    <row r="355"/>
+    <row r="356"/>
+    <row r="357"/>
+    <row r="358"/>
+    <row r="359"/>
+    <row r="360"/>
+    <row r="361"/>
+    <row r="362"/>
+    <row r="363"/>
+    <row r="364"/>
+    <row r="365"/>
+    <row r="366"/>
+    <row r="367"/>
+    <row r="368"/>
+    <row r="369"/>
+    <row r="370"/>
+    <row r="371"/>
+    <row r="372"/>
+    <row r="373"/>
+    <row r="374"/>
+    <row r="375"/>
+    <row r="376"/>
+    <row r="377"/>
+    <row r="378"/>
+    <row r="379"/>
+    <row r="380"/>
+    <row r="381"/>
+    <row r="382"/>
+    <row r="383"/>
+    <row r="384"/>
+    <row r="385"/>
+    <row r="386"/>
+    <row r="387"/>
+    <row r="388"/>
+    <row r="389"/>
+    <row r="390"/>
+    <row r="391"/>
+    <row r="392"/>
+    <row r="393"/>
+    <row r="394"/>
+    <row r="395"/>
+    <row r="396"/>
+    <row r="397"/>
+    <row r="398"/>
+    <row r="399"/>
+    <row r="400"/>
+    <row r="401"/>
+    <row r="402"/>
+    <row r="403"/>
+    <row r="404"/>
+    <row r="405"/>
+    <row r="406"/>
+    <row r="407"/>
+    <row r="408"/>
+    <row r="409"/>
+    <row r="410"/>
+    <row r="411"/>
+    <row r="412"/>
+    <row r="413"/>
+    <row r="414"/>
+    <row r="415"/>
+    <row r="416"/>
+    <row r="417"/>
+    <row r="418"/>
+    <row r="419"/>
+    <row r="420"/>
+    <row r="421"/>
+    <row r="422"/>
+    <row r="423"/>
+    <row r="424"/>
+    <row r="425"/>
+    <row r="426"/>
+    <row r="427"/>
+    <row r="428"/>
+    <row r="429"/>
+    <row r="430"/>
+    <row r="431"/>
+    <row r="432"/>
+    <row r="433"/>
+    <row r="434"/>
+    <row r="435"/>
+    <row r="436"/>
+    <row r="437"/>
+    <row r="438"/>
+    <row r="439"/>
+    <row r="440"/>
+    <row r="441"/>
+    <row r="442"/>
+    <row r="443"/>
+    <row r="444"/>
+    <row r="445"/>
+    <row r="446"/>
+    <row r="447"/>
+    <row r="448"/>
+    <row r="449"/>
+    <row r="450"/>
+    <row r="451"/>
+    <row r="452"/>
+    <row r="453"/>
+    <row r="454"/>
+    <row r="455"/>
+    <row r="456"/>
+    <row r="457"/>
+    <row r="458"/>
+    <row r="459"/>
+    <row r="460"/>
+    <row r="461"/>
+    <row r="462"/>
+    <row r="463"/>
+    <row r="464"/>
+    <row r="465"/>
+    <row r="466"/>
+    <row r="467"/>
+    <row r="468"/>
+    <row r="469"/>
+    <row r="470"/>
+    <row r="471"/>
+    <row r="472"/>
+    <row r="473"/>
+    <row r="474"/>
+    <row r="475"/>
+    <row r="476"/>
+    <row r="477"/>
+    <row r="478"/>
+    <row r="479"/>
+    <row r="480"/>
+    <row r="481"/>
+    <row r="482"/>
+    <row r="483"/>
+    <row r="484"/>
+    <row r="485"/>
+    <row r="486"/>
+    <row r="487"/>
+    <row r="488"/>
+    <row r="489"/>
+    <row r="490"/>
+    <row r="491"/>
+    <row r="492"/>
+    <row r="493"/>
+    <row r="494"/>
+    <row r="495"/>
+    <row r="496"/>
+    <row r="497"/>
+    <row r="498"/>
+    <row r="499"/>
+    <row r="500"/>
+    <row r="501"/>
+    <row r="502"/>
+    <row r="503"/>
+    <row r="504"/>
+    <row r="505"/>
+    <row r="506"/>
+    <row r="507"/>
+    <row r="508"/>
+    <row r="509"/>
+    <row r="510"/>
+    <row r="511"/>
+    <row r="512"/>
+    <row r="513"/>
+    <row r="514"/>
+    <row r="515"/>
+    <row r="516"/>
+    <row r="517"/>
+    <row r="518"/>
+    <row r="519"/>
+    <row r="520"/>
+    <row r="521"/>
+    <row r="522"/>
+    <row r="523"/>
+    <row r="524"/>
+    <row r="525"/>
+    <row r="526"/>
+    <row r="527"/>
+    <row r="528"/>
+    <row r="529"/>
+    <row r="530"/>
+    <row r="531"/>
+    <row r="532"/>
+    <row r="533"/>
+    <row r="534"/>
+    <row r="535"/>
+    <row r="536"/>
+    <row r="537"/>
+    <row r="538"/>
+    <row r="539"/>
+    <row r="540"/>
+    <row r="541"/>
+    <row r="542"/>
+    <row r="543"/>
+    <row r="544"/>
+    <row r="545"/>
+    <row r="546"/>
+    <row r="547"/>
+    <row r="548"/>
+    <row r="549"/>
+    <row r="550"/>
+    <row r="551"/>
+    <row r="552"/>
+    <row r="553"/>
+    <row r="554"/>
+    <row r="555"/>
+    <row r="556"/>
+    <row r="557"/>
+    <row r="558"/>
+    <row r="559"/>
+    <row r="560"/>
+    <row r="561"/>
+    <row r="562"/>
+    <row r="563"/>
+    <row r="564"/>
+    <row r="565"/>
+    <row r="566"/>
+    <row r="567"/>
+    <row r="568"/>
+    <row r="569"/>
+    <row r="570"/>
+    <row r="571"/>
+    <row r="572"/>
+    <row r="573"/>
+    <row r="574"/>
+    <row r="575"/>
+    <row r="576"/>
+    <row r="577"/>
+    <row r="578"/>
+    <row r="579"/>
+    <row r="580"/>
+    <row r="581"/>
+    <row r="582"/>
+    <row r="583"/>
+    <row r="584"/>
+    <row r="585"/>
+    <row r="586"/>
+    <row r="587"/>
+    <row r="588"/>
+    <row r="589"/>
+    <row r="590"/>
+    <row r="591"/>
+    <row r="592"/>
+    <row r="593"/>
+    <row r="594"/>
+    <row r="595"/>
+    <row r="596"/>
+    <row r="597"/>
+    <row r="598"/>
+    <row r="599"/>
+    <row r="600"/>
+    <row r="601"/>
+    <row r="602"/>
+    <row r="603"/>
+    <row r="604"/>
+    <row r="605"/>
+    <row r="606"/>
+    <row r="607"/>
+    <row r="608"/>
+    <row r="609"/>
+    <row r="610"/>
+    <row r="611"/>
+    <row r="612"/>
+    <row r="613"/>
+    <row r="614"/>
+    <row r="615"/>
+    <row r="616"/>
+    <row r="617"/>
+    <row r="618"/>
+    <row r="619"/>
+    <row r="620"/>
+    <row r="621"/>
+    <row r="622"/>
+    <row r="623"/>
+    <row r="624"/>
+    <row r="625"/>
+    <row r="626"/>
+    <row r="627"/>
+    <row r="628"/>
+    <row r="629"/>
+    <row r="630"/>
+    <row r="631"/>
+    <row r="632"/>
+    <row r="633"/>
+    <row r="634"/>
+    <row r="635"/>
+    <row r="636"/>
+    <row r="637"/>
+    <row r="638"/>
+    <row r="639"/>
+    <row r="640"/>
+    <row r="641"/>
+    <row r="642"/>
+    <row r="643"/>
+    <row r="644"/>
+    <row r="645"/>
+    <row r="646"/>
+    <row r="647"/>
+    <row r="648"/>
+    <row r="649"/>
+    <row r="650"/>
+    <row r="651"/>
+    <row r="652"/>
+    <row r="653"/>
+    <row r="654"/>
+    <row r="655"/>
+    <row r="656"/>
+    <row r="657"/>
+    <row r="658"/>
+    <row r="659"/>
+    <row r="660"/>
+    <row r="661"/>
+    <row r="662"/>
+    <row r="663"/>
+    <row r="664"/>
+    <row r="665"/>
+    <row r="666"/>
+    <row r="667"/>
+    <row r="668"/>
+    <row r="669"/>
+    <row r="670"/>
+    <row r="671"/>
+    <row r="672"/>
+    <row r="673"/>
+    <row r="674"/>
+    <row r="675"/>
+    <row r="676"/>
+    <row r="677"/>
+    <row r="678"/>
+    <row r="679"/>
+    <row r="680"/>
+    <row r="681"/>
+    <row r="682"/>
+    <row r="683"/>
+    <row r="684"/>
+    <row r="685"/>
+    <row r="686"/>
+    <row r="687"/>
+    <row r="688"/>
+    <row r="689"/>
+    <row r="690"/>
+    <row r="691"/>
+    <row r="692"/>
+    <row r="693"/>
+    <row r="694"/>
+    <row r="695"/>
+    <row r="696"/>
+    <row r="697"/>
+    <row r="698"/>
+    <row r="699"/>
+    <row r="700"/>
+    <row r="701"/>
+    <row r="702"/>
+    <row r="703"/>
+    <row r="704"/>
+    <row r="705"/>
+    <row r="706"/>
+    <row r="707"/>
+    <row r="708"/>
+    <row r="709"/>
+    <row r="710"/>
+    <row r="711"/>
+    <row r="712"/>
+    <row r="713"/>
+    <row r="714"/>
+    <row r="715"/>
+    <row r="716"/>
+    <row r="717"/>
+    <row r="718"/>
+    <row r="719"/>
+    <row r="720"/>
+    <row r="721"/>
+    <row r="722"/>
+    <row r="723"/>
+    <row r="724"/>
+    <row r="725"/>
+    <row r="726"/>
+    <row r="727"/>
+    <row r="728"/>
+    <row r="729"/>
+    <row r="730"/>
+    <row r="731"/>
+    <row r="732"/>
+    <row r="733"/>
+    <row r="734"/>
+    <row r="735"/>
+    <row r="736"/>
+    <row r="737"/>
+    <row r="738"/>
+    <row r="739"/>
+    <row r="740"/>
+    <row r="741"/>
+    <row r="742"/>
+    <row r="743"/>
+    <row r="744"/>
+    <row r="745"/>
+    <row r="746"/>
+    <row r="747"/>
+    <row r="748"/>
+    <row r="749"/>
+    <row r="750"/>
+    <row r="751"/>
+    <row r="752"/>
+    <row r="753"/>
+    <row r="754"/>
+    <row r="755"/>
+    <row r="756"/>
+    <row r="757"/>
+    <row r="758"/>
+    <row r="759"/>
+    <row r="760"/>
+    <row r="761"/>
+    <row r="762"/>
+    <row r="763"/>
+    <row r="764"/>
+    <row r="765"/>
+    <row r="766"/>
+    <row r="767"/>
+    <row r="768"/>
+    <row r="769"/>
+    <row r="770"/>
+    <row r="771"/>
+    <row r="772"/>
+    <row r="773"/>
+    <row r="774"/>
+    <row r="775"/>
+    <row r="776"/>
+    <row r="777"/>
+    <row r="778"/>
+    <row r="779"/>
+    <row r="780"/>
+    <row r="781"/>
+    <row r="782"/>
+    <row r="783"/>
+    <row r="784"/>
+    <row r="785"/>
+    <row r="786"/>
+    <row r="787"/>
+    <row r="788"/>
+    <row r="789"/>
+    <row r="790"/>
+    <row r="791"/>
+    <row r="792"/>
+    <row r="793"/>
+    <row r="794"/>
+    <row r="795"/>
+    <row r="796"/>
+    <row r="797"/>
+    <row r="798"/>
+    <row r="799"/>
+    <row r="800"/>
+    <row r="801"/>
+    <row r="802"/>
+    <row r="803"/>
+    <row r="804"/>
+    <row r="805"/>
+    <row r="806"/>
+    <row r="807"/>
+    <row r="808"/>
+    <row r="809"/>
+    <row r="810"/>
+    <row r="811"/>
+    <row r="812"/>
+    <row r="813"/>
+    <row r="814"/>
+    <row r="815"/>
+    <row r="816"/>
+    <row r="817"/>
+    <row r="818"/>
+    <row r="819"/>
+    <row r="820"/>
+    <row r="821"/>
+    <row r="822"/>
+    <row r="823"/>
+    <row r="824"/>
+    <row r="825"/>
+    <row r="826"/>
+    <row r="827"/>
+    <row r="828"/>
+    <row r="829"/>
+    <row r="830"/>
+    <row r="831"/>
+    <row r="832"/>
+    <row r="833"/>
+    <row r="834"/>
+    <row r="835"/>
+    <row r="836"/>
+    <row r="837"/>
+    <row r="838"/>
+    <row r="839"/>
+    <row r="840"/>
+    <row r="841"/>
+    <row r="842"/>
+    <row r="843"/>
+    <row r="844"/>
+    <row r="845"/>
+    <row r="846"/>
+    <row r="847"/>
+    <row r="848"/>
+    <row r="849"/>
+    <row r="850"/>
+    <row r="851"/>
+    <row r="852"/>
+    <row r="853"/>
+    <row r="854"/>
+    <row r="855"/>
+    <row r="856"/>
+    <row r="857"/>
+    <row r="858"/>
+    <row r="859"/>
+    <row r="860"/>
+    <row r="861"/>
+    <row r="862"/>
+    <row r="863"/>
+    <row r="864"/>
+    <row r="865"/>
+    <row r="866"/>
+    <row r="867"/>
+    <row r="868"/>
+    <row r="869"/>
+    <row r="870"/>
+    <row r="871"/>
+    <row r="872"/>
+    <row r="873"/>
+    <row r="874"/>
+    <row r="875"/>
+    <row r="876"/>
+    <row r="877"/>
+    <row r="878"/>
+    <row r="879"/>
+    <row r="880"/>
+    <row r="881"/>
+    <row r="882"/>
+    <row r="883"/>
+    <row r="884"/>
+    <row r="885"/>
+    <row r="886"/>
+    <row r="887"/>
+    <row r="888"/>
+    <row r="889"/>
+    <row r="890"/>
+    <row r="891"/>
+    <row r="892"/>
+    <row r="893"/>
+    <row r="894"/>
+    <row r="895"/>
+    <row r="896"/>
+    <row r="897"/>
+    <row r="898"/>
+    <row r="899"/>
+    <row r="900"/>
+    <row r="901"/>
+    <row r="902"/>
+    <row r="903"/>
+    <row r="904"/>
+    <row r="905"/>
+    <row r="906"/>
+    <row r="907"/>
+    <row r="908"/>
+    <row r="909"/>
+    <row r="910"/>
+    <row r="911"/>
+    <row r="912"/>
+    <row r="913"/>
+    <row r="914"/>
+    <row r="915"/>
+    <row r="916"/>
+    <row r="917"/>
+    <row r="918"/>
+    <row r="919"/>
+    <row r="920"/>
+    <row r="921"/>
+    <row r="922"/>
+    <row r="923"/>
+    <row r="924"/>
+    <row r="925"/>
+    <row r="926"/>
+    <row r="927"/>
+    <row r="928"/>
+    <row r="929"/>
+    <row r="930"/>
+    <row r="931"/>
+    <row r="932"/>
+    <row r="933"/>
+    <row r="934"/>
+    <row r="935"/>
+    <row r="936"/>
+    <row r="937"/>
+    <row r="938"/>
+    <row r="939"/>
+    <row r="940"/>
+    <row r="941"/>
+    <row r="942"/>
+    <row r="943"/>
+    <row r="944"/>
+    <row r="945"/>
+    <row r="946"/>
+    <row r="947"/>
+    <row r="948"/>
+    <row r="949"/>
+    <row r="950"/>
+    <row r="951"/>
+    <row r="952"/>
+    <row r="953"/>
+    <row r="954"/>
+    <row r="955"/>
+    <row r="956"/>
+    <row r="957"/>
+    <row r="958"/>
+    <row r="959"/>
+    <row r="960"/>
+    <row r="961"/>
+    <row r="962"/>
+    <row r="963"/>
+    <row r="964"/>
+    <row r="965"/>
+    <row r="966"/>
+    <row r="967"/>
+    <row r="968"/>
+    <row r="969"/>
+    <row r="970"/>
+    <row r="971"/>
+    <row r="972"/>
+    <row r="973"/>
+    <row r="974"/>
+    <row r="975"/>
+    <row r="976"/>
+    <row r="977"/>
+    <row r="978"/>
+    <row r="979"/>
+    <row r="980"/>
+    <row r="981"/>
+    <row r="982"/>
+    <row r="983"/>
+    <row r="984"/>
+    <row r="985"/>
+    <row r="986"/>
+    <row r="987"/>
+    <row r="988"/>
+    <row r="989"/>
+    <row r="990"/>
+    <row r="991"/>
+    <row r="992"/>
+    <row r="993"/>
+    <row r="994"/>
+    <row r="995"/>
+    <row r="996"/>
+    <row r="997"/>
+    <row r="998"/>
+    <row r="999"/>
   </sheetData>
+  <dataValidations count="998">
+    <dataValidation sqref="A2" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A3" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A5" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A6" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A7" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A8" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A9" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A10" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A11" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A12" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A13" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A14" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A15" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A16" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A17" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A18" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A19" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A20" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A21" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A22" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A23" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A24" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A25" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A26" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A27" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A28" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A29" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A30" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A31" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A32" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A33" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A34" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A35" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A36" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A37" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A38" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A39" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A40" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A41" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A42" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A43" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A44" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A45" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A46" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A47" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A48" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A49" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A50" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A51" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A52" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A53" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A54" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A55" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A56" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A57" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A58" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A59" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A60" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A61" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A62" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A63" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A64" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A65" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A66" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A67" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A68" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A69" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A70" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A71" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A72" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A73" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A74" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A75" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A76" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A77" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A78" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A79" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A80" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A81" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A82" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A83" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A84" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A85" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A86" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A87" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A88" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A89" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A90" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A91" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A92" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A93" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A94" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A95" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A96" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A97" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A98" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A99" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A100" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A101" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A102" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A103" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A104" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A105" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A106" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A107" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A108" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A109" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A110" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A111" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A112" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A113" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A114" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A115" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A116" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A117" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A118" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A119" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A120" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A121" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A122" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A123" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A124" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A125" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A126" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A127" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A128" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A129" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A130" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A131" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A132" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A133" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A134" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A135" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A136" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A137" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A138" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A139" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A140" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A141" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A142" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A143" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A144" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A145" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A146" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A147" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A148" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A149" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A150" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A151" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A152" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A153" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A154" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A155" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A156" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A157" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A158" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A159" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A160" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A161" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A162" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A163" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A164" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A165" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A166" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A167" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A168" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A169" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A170" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A171" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A172" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A173" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A174" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A175" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A176" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A177" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A178" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A179" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A180" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A181" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A182" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A183" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A184" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A185" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A186" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A187" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A188" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A189" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A190" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A191" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A192" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A193" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A194" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A195" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A196" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A197" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A198" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A199" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A200" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A201" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A202" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A203" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A204" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A205" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A206" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A207" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A208" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A209" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A210" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A211" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A212" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A213" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A214" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A215" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A216" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A217" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A218" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A219" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A220" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A221" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A222" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A223" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A224" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A225" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A226" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A227" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A228" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A229" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A230" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A231" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A232" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A233" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A234" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A235" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A236" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A237" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A238" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A239" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A240" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A241" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A242" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A243" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A244" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A245" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A246" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A247" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A248" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A249" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A250" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A251" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A252" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A253" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A254" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A255" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A256" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A257" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A258" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A259" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A260" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A261" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A262" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A263" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A264" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A265" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A266" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A267" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A268" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A269" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A270" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A271" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A272" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A273" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A274" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A275" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A276" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A277" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A278" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A279" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A280" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A281" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A282" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A283" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A284" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A285" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A286" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A287" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A288" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A289" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A290" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A291" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A292" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A293" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A294" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A295" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A296" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A297" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A298" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A299" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A300" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A301" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A302" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A303" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A304" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A305" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A306" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A307" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A308" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A309" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A310" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A311" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A312" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A313" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A314" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A315" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A316" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A317" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A318" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A319" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A320" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A321" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A322" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A323" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A324" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A325" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A326" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A327" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A328" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A329" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A330" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A331" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A332" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A333" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A334" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A335" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A336" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A337" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A338" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A339" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A340" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A341" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A342" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A343" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A344" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A345" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A346" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A347" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A348" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A349" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A350" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A351" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A352" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A353" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A354" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A355" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A356" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A357" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A358" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A359" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A360" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A361" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A362" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A363" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A364" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A365" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A366" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A367" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A368" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A369" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A370" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A371" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A372" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A373" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A374" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A375" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A376" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A377" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A378" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A379" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A380" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A381" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A382" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A383" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A384" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A385" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A386" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A387" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A388" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A389" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A390" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A391" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A392" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A393" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A394" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A395" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A396" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A397" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A398" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A399" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A400" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A401" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A402" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A403" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A404" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A405" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A406" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A407" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A408" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A409" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A410" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A411" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A412" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A413" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A414" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A415" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A416" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A417" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A418" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A419" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A420" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A421" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A422" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A423" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A424" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A425" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A426" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A427" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A428" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A429" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A430" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A431" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A432" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A433" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A434" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A435" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A436" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A437" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A438" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A439" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A440" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A441" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A442" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A443" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A444" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A445" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A446" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A447" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A448" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A449" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A450" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A451" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A452" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A453" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A454" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A455" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A456" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A457" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A458" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A459" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A460" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A461" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A462" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A463" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A464" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A465" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A466" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A467" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A468" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A469" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A470" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A471" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A472" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A473" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A474" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A475" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A476" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A477" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A478" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A479" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A480" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A481" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A482" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A483" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A484" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A485" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A486" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A487" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A488" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A489" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A490" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A491" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A492" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A493" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A494" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A495" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A496" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A497" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A498" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A499" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A500" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A501" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A502" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A503" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A504" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A505" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A506" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A507" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A508" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A509" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A510" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A511" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A512" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A513" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A514" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A515" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A516" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A517" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A518" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A519" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A520" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A521" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A522" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A523" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A524" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A525" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A526" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A527" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A528" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A529" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A530" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A531" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A532" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A533" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A534" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A535" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A536" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A537" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A538" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A539" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A540" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A541" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A542" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A543" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A544" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A545" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A546" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A547" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A548" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A549" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A550" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A551" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A552" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A553" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A554" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A555" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A556" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A557" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A558" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A559" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A560" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A561" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A562" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A563" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A564" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A565" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A566" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A567" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A568" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A569" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A570" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A571" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A572" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A573" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A574" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A575" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A576" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A577" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A578" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A579" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A580" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A581" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A582" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A583" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A584" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A585" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A586" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A587" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A588" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A589" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A590" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A591" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A592" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A593" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A594" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A595" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A596" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A597" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A598" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A599" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A600" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A601" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A602" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A603" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A604" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A605" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A606" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A607" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A608" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A609" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A610" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A611" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A612" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A613" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A614" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A615" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A616" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A617" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A618" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A619" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A620" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A621" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A622" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A623" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A624" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A625" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A626" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A627" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A628" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A629" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A630" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A631" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A632" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A633" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A634" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A635" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A636" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A637" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A638" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A639" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A640" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A641" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A642" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A643" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A644" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A645" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A646" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A647" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A648" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A649" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A650" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A651" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A652" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A653" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A654" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A655" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A656" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A657" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A658" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A659" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A660" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A661" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A662" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A663" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A664" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A665" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A666" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A667" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A668" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A669" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A670" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A671" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A672" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A673" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A674" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A675" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A676" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A677" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A678" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A679" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A680" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A681" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A682" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A683" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A684" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A685" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A686" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A687" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A688" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A689" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A690" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A691" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A692" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A693" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A694" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A695" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A696" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A697" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A698" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A699" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A700" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A701" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A702" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A703" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A704" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A705" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A706" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A707" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A708" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A709" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A710" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A711" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A712" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A713" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A714" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A715" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A716" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A717" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A718" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A719" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A720" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A721" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A722" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A723" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A724" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A725" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A726" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A727" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A728" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A729" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A730" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A731" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A732" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A733" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A734" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A735" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A736" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A737" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A738" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A739" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A740" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A741" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A742" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A743" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A744" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A745" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A746" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A747" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A748" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A749" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A750" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A751" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A752" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A753" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A754" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A755" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A756" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A757" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A758" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A759" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A760" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A761" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A762" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A763" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A764" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A765" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A766" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A767" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A768" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A769" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A770" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A771" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A772" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A773" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A774" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A775" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A776" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A777" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A778" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A779" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A780" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A781" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A782" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A783" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A784" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A785" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A786" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A787" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A788" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A789" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A790" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A791" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A792" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A793" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A794" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A795" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A796" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A797" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A798" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A799" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A800" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A801" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A802" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A803" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A804" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A805" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A806" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A807" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A808" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A809" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A810" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A811" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A812" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A813" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A814" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A815" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A816" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A817" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A818" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A819" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A820" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A821" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A822" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A823" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A824" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A825" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A826" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A827" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A828" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A829" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A830" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A831" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A832" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A833" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A834" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A835" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A836" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A837" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A838" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A839" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A840" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A841" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A842" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A843" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A844" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A845" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A846" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A847" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A848" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A849" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A850" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A851" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A852" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A853" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A854" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A855" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A856" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A857" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A858" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A859" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A860" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A861" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A862" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A863" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A864" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A865" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A866" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A867" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A868" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A869" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A870" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A871" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A872" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A873" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A874" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A875" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A876" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A877" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A878" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A879" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A880" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A881" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A882" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A883" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A884" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A885" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A886" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A887" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A888" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A889" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A890" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A891" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A892" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A893" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A894" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A895" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A896" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A897" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A898" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A899" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A900" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A901" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A902" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A903" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A904" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A905" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A906" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A907" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A908" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A909" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A910" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A911" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A912" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A913" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A914" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A915" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A916" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A917" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A918" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A919" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A920" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A921" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A922" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A923" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A924" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A925" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A926" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A927" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A928" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A929" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A930" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A931" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A932" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A933" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A934" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A935" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A936" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A937" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A938" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A939" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A940" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A941" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A942" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A943" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A944" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A945" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A946" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A947" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A948" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A949" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A950" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A951" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A952" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A953" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A954" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A955" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A956" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A957" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A958" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A959" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A960" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A961" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A962" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A963" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A964" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A965" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A966" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A967" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A968" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A969" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A970" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A971" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A972" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A973" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A974" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A975" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A976" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A977" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A978" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A979" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A980" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A981" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A982" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A983" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A984" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A985" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A986" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A987" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A988" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A989" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A990" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A991" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A992" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A993" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A994" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A995" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A996" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A997" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A998" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation sqref="A999" showDropDown="0" showInputMessage="0" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=possible_values!$A$2:$A$35</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -506,14 +4493,481 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>criticalRawMaterials[0]_criticalRawMaterialName</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Antimony</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Arsenic</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aluminium/Bauxite</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baryte</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Beryllium</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bismuth</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Boron/borates</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Cobalt</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Coking Coal</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Copper</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Feldspar</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Fluorspar</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Gallium</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Germanium</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Hafnium</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Helium</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Heavy Rare Earth Elements</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Light Rare Earth Elements</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Lithium</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Magnesium</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Manganese</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Natural Graphite</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Nickel - battery grade</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Niobium</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Phosphate rock</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Phosphorus</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Platiunm Group Metals</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Scandium</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Silicon metal</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Strontium</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Tantalum</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Titanium metal</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Tungsten</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Vanadium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Column Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Possible Values</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>criticalRawMaterials[0]_criticalRawMaterialName</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Name of critical Raw Material</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['Antimony', 'Arsenic', 'Aluminium/Bauxite', 'Baryte', 'Beryllium', 'Bismuth', 'Boron/borates', 'Cobalt', 'Coking Coal', 'Copper', 'Feldspar', 'Fluorspar', 'Gallium', 'Germanium', 'Hafnium', 'Helium', 'Heavy Rare Earth Elements', 'Light Rare Earth Elements', 'Lithium', 'Magnesium', 'Manganese', 'Natural Graphite', 'Nickel - battery grade', 'Niobium', 'Phosphate rock', 'Phosphorus', 'Platiunm Group Metals', 'Scandium', 'Silicon metal', 'Strontium', 'Tantalum', 'Titanium metal', 'Tungsten', 'Vanadium']</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>criticalRawMaterials[0]_percentageOfMaterialWeight</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">contains the Mass percentage of this material of the Anode, Cathode or Electrolyte </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>hazardousMaterials[0]_hazardClassification</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The classification and category is defined by the CLP Regulation</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>hazardousMaterials[0]_locationOfHazardousSubstances</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Description where the hazardous substances are located within this product</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>hazardousMaterials[0]_enviromentalImpact</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Describes a Property which contains plain text. This is intended exclusively for human readable strings, not for identifiers, measurement values, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>hazardousMaterials[0]_hazardousMaterialCas</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CAS number of the hazardous material</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>hazardousMaterials[0]_clpIndex</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>This contains the CLP Index for the related material</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>hazardousMaterials[0]_rangeScipConcentration</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Percentage of related Material </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Key</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>basedOnCommit</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4f05217c4b244744bb7570067ce3721b58a15718</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>commitHtmlUrl</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://github.com/dataspacesolutions/sldt-semantic-models/commit/4f05217c4b244744bb7570067ce3721b58a15718</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>commitDate</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-04-28 11:50:46+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>commitMessage</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>added custom aspect models</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/excel_reporting_templates/DeclarableSubstancesForBatterySupplier-1.0.0-schema-reporting_template.xlsx
+++ b/excel_reporting_templates/DeclarableSubstancesForBatterySupplier-1.0.0-schema-reporting_template.xlsx
@@ -491,9 +491,9 @@
     <col width="50" customWidth="1" min="5" max="5"/>
     <col width="50" customWidth="1" min="6" max="6"/>
     <col width="50" customWidth="1" min="7" max="7"/>
-    <col width="48" customWidth="1" min="8" max="8"/>
+    <col width="49.2" customWidth="1" min="8" max="8"/>
     <col width="50" customWidth="1" min="9" max="9"/>
-    <col width="36" customWidth="1" min="10" max="10"/>
+    <col width="37.2" customWidth="1" min="10" max="10"/>
     <col width="50" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -515,42 +515,42 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>criticalRawMaterials[0]_criticalRawMaterialName</t>
+          <t>criticalRawMaterials[0]__criticalRawMaterialName</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>criticalRawMaterials[0]_percentageOfMaterialWeight</t>
+          <t>criticalRawMaterials[0]__percentageOfMaterialWeight</t>
         </is>
       </c>
       <c r="F1" s="2" t="inlineStr">
         <is>
-          <t>hazardousMaterials[0]_hazardClassification</t>
+          <t>hazardousMaterials[0]__hazardClassification</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>hazardousMaterials[0]_locationOfHazardousSubstances</t>
+          <t>hazardousMaterials[0]__locationOfHazardousSubstances</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
-          <t>hazardousMaterials[0]_enviromentalImpact</t>
+          <t>hazardousMaterials[0]__enviromentalImpact</t>
         </is>
       </c>
       <c r="I1" s="2" t="inlineStr">
         <is>
-          <t>hazardousMaterials[0]_hazardousMaterialCas</t>
+          <t>hazardousMaterials[0]__hazardousMaterialCas</t>
         </is>
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t>hazardousMaterials[0]_clpIndex</t>
+          <t>hazardousMaterials[0]__clpIndex</t>
         </is>
       </c>
       <c r="K1" s="3" t="inlineStr">
         <is>
-          <t>hazardousMaterials[0]_rangeScipConcentration</t>
+          <t>hazardousMaterials[0]__rangeScipConcentration</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
     <row r="3" ht="30" customHeight="1">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>2. Columns highlighted in olive green are digital twin fields.</t>
+          <t>1. Columns highlighted in olive green are digital twin fields.</t>
         </is>
       </c>
       <c r="B3" s="5" t="n"/>
@@ -630,7 +630,7 @@
       </c>
       <c r="B5" s="7" t="inlineStr">
         <is>
-          <t>Digital Twin Field: id</t>
+          <t>Digital Twin Field Name: id</t>
         </is>
       </c>
       <c r="C5" s="7" t="n"/>
@@ -643,7 +643,7 @@
       </c>
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>Digital Twin Field: manufacturerPartId</t>
+          <t>Digital Twin Field Name: manufacturerPartId</t>
         </is>
       </c>
       <c r="C6" s="8" t="n"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="B7" s="7" t="inlineStr">
         <is>
-          <t>Digital Twin Field: partInstanceId</t>
+          <t>Digital Twin Field Name: partInstanceId</t>
         </is>
       </c>
       <c r="C7" s="7" t="n"/>
@@ -664,7 +664,7 @@
     <row r="8">
       <c r="A8" s="8" t="inlineStr">
         <is>
-          <t>criticalRawMaterials[0]_criticalRawMaterialName</t>
+          <t>criticalRawMaterials[0]__criticalRawMaterialName</t>
         </is>
       </c>
       <c r="B8" s="8" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>criticalRawMaterials[0]_percentageOfMaterialWeight</t>
+          <t>criticalRawMaterials[0]__percentageOfMaterialWeight</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -694,7 +694,7 @@
     <row r="10">
       <c r="A10" s="8" t="inlineStr">
         <is>
-          <t>hazardousMaterials[0]_hazardClassification</t>
+          <t>hazardousMaterials[0]__hazardClassification</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
@@ -707,7 +707,7 @@
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>hazardousMaterials[0]_locationOfHazardousSubstances</t>
+          <t>hazardousMaterials[0]__locationOfHazardousSubstances</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -720,7 +720,7 @@
     <row r="12">
       <c r="A12" s="8" t="inlineStr">
         <is>
-          <t>hazardousMaterials[0]_enviromentalImpact</t>
+          <t>hazardousMaterials[0]__enviromentalImpact</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
@@ -733,7 +733,7 @@
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>hazardousMaterials[0]_hazardousMaterialCas</t>
+          <t>hazardousMaterials[0]__hazardousMaterialCas</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
@@ -746,7 +746,7 @@
     <row r="14">
       <c r="A14" s="8" t="inlineStr">
         <is>
-          <t>hazardousMaterials[0]_clpIndex</t>
+          <t>hazardousMaterials[0]__clpIndex</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
@@ -759,7 +759,7 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>hazardousMaterials[0]_rangeScipConcentration</t>
+          <t>hazardousMaterials[0]__rangeScipConcentration</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">

--- a/excel_reporting_templates/DeclarableSubstancesForBatterySupplier-1.0.0-schema-reporting_template.xlsx
+++ b/excel_reporting_templates/DeclarableSubstancesForBatterySupplier-1.0.0-schema-reporting_template.xlsx
@@ -484,7 +484,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="2.4" customWidth="1" min="1" max="1"/>
+    <col width="9.6" customWidth="1" min="1" max="1"/>
     <col width="21.6" customWidth="1" min="2" max="2"/>
     <col width="16.8" customWidth="1" min="3" max="3"/>
     <col width="50" customWidth="1" min="4" max="4"/>
@@ -500,7 +500,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>dtwin_id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -625,7 +625,7 @@
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>id</t>
+          <t>dtwin_id</t>
         </is>
       </c>
       <c r="B5" s="7" t="inlineStr">

--- a/excel_reporting_templates/DeclarableSubstancesForBatterySupplier-1.0.0-schema-reporting_template.xlsx
+++ b/excel_reporting_templates/DeclarableSubstancesForBatterySupplier-1.0.0-schema-reporting_template.xlsx
@@ -8,8 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="semantic_aspect_model_schema" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="description" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="metadata" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="possible_values" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,11 +26,8 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b val="1"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -40,36 +36,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B7DEE8"/>
-        <bgColor rgb="00B7DEE8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFEB9C"/>
-        <bgColor rgb="00FFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFFDE9"/>
-        <bgColor rgb="00FFFDE9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C4D79B"/>
-        <bgColor rgb="00C4D79B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="0000FF00"/>
         <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -77,38 +49,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -476,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,73 +434,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9.6" customWidth="1" min="1" max="1"/>
-    <col width="21.6" customWidth="1" min="2" max="2"/>
-    <col width="16.8" customWidth="1" min="3" max="3"/>
-    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="40.8" customWidth="1" min="4" max="4"/>
     <col width="50" customWidth="1" min="5" max="5"/>
-    <col width="50" customWidth="1" min="6" max="6"/>
-    <col width="50" customWidth="1" min="7" max="7"/>
-    <col width="49.2" customWidth="1" min="8" max="8"/>
-    <col width="50" customWidth="1" min="9" max="9"/>
-    <col width="37.2" customWidth="1" min="10" max="10"/>
-    <col width="50" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>dtwin_id</t>
+          <t>Unique identifier for the declarable substances data.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>manufacturerPartId</t>
+          <t>Describes a Property which contains plain text.</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>partInstanceId</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>criticalRawMaterials[0]__criticalRawMaterialName</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>criticalRawMaterials[0]__percentageOfMaterialWeight</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>hazardousMaterials[0]__hazardClassification</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>hazardousMaterials[0]__locationOfHazardousSubstances</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>hazardousMaterials[0]__enviromentalImpact</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>hazardousMaterials[0]__hazardousMaterialCas</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>hazardousMaterials[0]__clpIndex</t>
-        </is>
-      </c>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>hazardousMaterials[0]__rangeScipConcentration</t>
+          <t>Describes a Property which contains plain text.</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Characteristic of a numeric value.</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Describes a Property which contains plain text.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>identifier</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>substancesList_substanceName</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>substancesList_casNumber</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>substancesList_concentration</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>substancesList_regulatoryCompliance</t>
         </is>
       </c>
     </row>
@@ -565,295 +506,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="22" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>Legends</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="n"/>
-      <c r="C1" s="5" t="n"/>
-    </row>
-    <row r="2" ht="30" customHeight="1">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>1. Columns highlighted in green in the 'semantic_aspect_model_schema' sheet are required fields.</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="n"/>
-      <c r="C2" s="5" t="n"/>
-    </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>1. Columns highlighted in olive green are digital twin fields.</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="n"/>
-      <c r="C3" s="5" t="n"/>
-    </row>
-    <row r="4" ht="22" customHeight="1">
-      <c r="A4" s="6" t="inlineStr">
-        <is>
-          <t>Column Name</t>
-        </is>
-      </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>Possible Values</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>dtwin_id</t>
-        </is>
-      </c>
-      <c r="B5" s="7" t="inlineStr">
-        <is>
-          <t>Digital Twin Field Name: id</t>
-        </is>
-      </c>
-      <c r="C5" s="7" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="inlineStr">
-        <is>
-          <t>manufacturerPartId</t>
-        </is>
-      </c>
-      <c r="B6" s="8" t="inlineStr">
-        <is>
-          <t>Digital Twin Field Name: manufacturerPartId</t>
-        </is>
-      </c>
-      <c r="C6" s="8" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>partInstanceId</t>
-        </is>
-      </c>
-      <c r="B7" s="7" t="inlineStr">
-        <is>
-          <t>Digital Twin Field Name: partInstanceId</t>
-        </is>
-      </c>
-      <c r="C7" s="7" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="8" t="inlineStr">
-        <is>
-          <t>criticalRawMaterials[0]__criticalRawMaterialName</t>
-        </is>
-      </c>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <t>Name of critical Raw Material</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>['Antimony', 'Arsenic', 'Aluminium/Bauxite', 'Baryte', 'Beryllium', 'Bismuth', 'Boron/borates', 'Cobalt', 'Coking Coal', 'Copper', 'Feldspar', 'Fluorspar', 'Gallium', 'Germanium', 'Hafnium', 'Helium', 'Heavy Rare Earth Elements', 'Light Rare Earth Elements', 'Lithium', 'Magnesium', 'Manganese', 'Natural Graphite', 'Nickel - battery grade', 'Niobium', 'Phosphate rock', 'Phosphorus', 'Platiunm Group Metals', 'Scandium', 'Silicon metal', 'Strontium', 'Tantalum', 'Titanium metal', 'Tungsten', 'Vanadium']</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>criticalRawMaterials[0]__percentageOfMaterialWeight</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">contains the Mass percentage of this material of the Anode, Cathode or Electrolyte </t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="8" t="inlineStr">
-        <is>
-          <t>hazardousMaterials[0]__hazardClassification</t>
-        </is>
-      </c>
-      <c r="B10" s="8" t="inlineStr">
-        <is>
-          <t>The classification and category is defined by the CLP Regulation</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>hazardousMaterials[0]__locationOfHazardousSubstances</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>Description where the hazardous substances are located within this product</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="8" t="inlineStr">
-        <is>
-          <t>hazardousMaterials[0]__enviromentalImpact</t>
-        </is>
-      </c>
-      <c r="B12" s="8" t="inlineStr">
-        <is>
-          <t>Describes a Property which contains plain text. This is intended exclusively for human readable strings, not for identifiers, measurement values, etc.</t>
-        </is>
-      </c>
-      <c r="C12" s="8" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>hazardousMaterials[0]__hazardousMaterialCas</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
-        <is>
-          <t>CAS number of the hazardous material</t>
-        </is>
-      </c>
-      <c r="C13" s="7" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="8" t="inlineStr">
-        <is>
-          <t>hazardousMaterials[0]__clpIndex</t>
-        </is>
-      </c>
-      <c r="B14" s="8" t="inlineStr">
-        <is>
-          <t>This contains the CLP Index for the related material</t>
-        </is>
-      </c>
-      <c r="C14" s="8" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>hazardousMaterials[0]__rangeScipConcentration</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Percentage of related Material </t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A2:C2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>key</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>basedOnCommit</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>4f05217c4b244744bb7570067ce3721b58a15718</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>commitHtmlUrl</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://github.com/dataspacesolutions/sldt-semantic-models/commit/4f05217c4b244744bb7570067ce3721b58a15718</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>commitDate</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-04-28 11:50:46+00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>commitMessage</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>added custom aspect models</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>